--- a/scripts/weather.xlsx
+++ b/scripts/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="15420" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -819,22 +819,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台北</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1383,6 +1367,21 @@
   </si>
   <si>
     <t>潜江</t>
+  </si>
+  <si>
+    <t>直辖市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直辖市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别行政区</t>
+  </si>
+  <si>
+    <t>特别行政区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1764,7 +1763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -1776,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1787,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1798,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1809,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3797,10 +3798,10 @@
         <v>101340101</v>
       </c>
       <c r="B185" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C185" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3808,10 +3809,10 @@
         <v>101340201</v>
       </c>
       <c r="B186" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3819,10 +3820,10 @@
         <v>101340401</v>
       </c>
       <c r="B187" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C187" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3830,10 +3831,10 @@
         <v>101330101</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C188" t="s">
-        <v>208</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3841,10 +3842,10 @@
         <v>101320101</v>
       </c>
       <c r="B189" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
-        <v>209</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3863,10 +3864,10 @@
         <v>101300101</v>
       </c>
       <c r="B191" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C191" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3874,10 +3875,10 @@
         <v>101300201</v>
       </c>
       <c r="B192" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C192" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3885,10 +3886,10 @@
         <v>101300301</v>
       </c>
       <c r="B193" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C193" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3896,10 +3897,10 @@
         <v>101300401</v>
       </c>
       <c r="B194" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3907,10 +3908,10 @@
         <v>101300501</v>
       </c>
       <c r="B195" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C195" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3918,10 +3919,10 @@
         <v>101300601</v>
       </c>
       <c r="B196" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C196" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3929,10 +3930,10 @@
         <v>101300701</v>
       </c>
       <c r="B197" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C197" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3940,10 +3941,10 @@
         <v>101300801</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C198" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3951,10 +3952,10 @@
         <v>101300901</v>
       </c>
       <c r="B199" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C199" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3962,10 +3963,10 @@
         <v>101301001</v>
       </c>
       <c r="B200" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C200" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3973,10 +3974,10 @@
         <v>101301101</v>
       </c>
       <c r="B201" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C201" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3984,10 +3985,10 @@
         <v>101301201</v>
       </c>
       <c r="B202" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C202" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3995,10 +3996,10 @@
         <v>101301301</v>
       </c>
       <c r="B203" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C203" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4006,10 +4007,10 @@
         <v>101301401</v>
       </c>
       <c r="B204" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C204" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4017,10 +4018,10 @@
         <v>101290101</v>
       </c>
       <c r="B205" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C205" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4028,10 +4029,10 @@
         <v>101290201</v>
       </c>
       <c r="B206" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C206" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4039,10 +4040,10 @@
         <v>101290301</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C207" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4050,10 +4051,10 @@
         <v>101290401</v>
       </c>
       <c r="B208" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C208" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4061,10 +4062,10 @@
         <v>101290501</v>
       </c>
       <c r="B209" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4072,10 +4073,10 @@
         <v>101290601</v>
       </c>
       <c r="B210" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C210" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4083,10 +4084,10 @@
         <v>101290701</v>
       </c>
       <c r="B211" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C211" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4094,10 +4095,10 @@
         <v>101290801</v>
       </c>
       <c r="B212" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C212" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4105,10 +4106,10 @@
         <v>101290901</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4116,10 +4117,10 @@
         <v>101291001</v>
       </c>
       <c r="B214" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C214" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4127,10 +4128,10 @@
         <v>101291101</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C215" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4138,10 +4139,10 @@
         <v>101291201</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C216" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4149,10 +4150,10 @@
         <v>101291301</v>
       </c>
       <c r="B217" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C217" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4160,10 +4161,10 @@
         <v>101291401</v>
       </c>
       <c r="B218" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C218" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4171,10 +4172,10 @@
         <v>101291501</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C219" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4182,10 +4183,10 @@
         <v>101291601</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C220" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4193,10 +4194,10 @@
         <v>101280101</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C221" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4204,10 +4205,10 @@
         <v>101280201</v>
       </c>
       <c r="B222" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C222" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4215,10 +4216,10 @@
         <v>101280301</v>
       </c>
       <c r="B223" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C223" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4226,10 +4227,10 @@
         <v>101280401</v>
       </c>
       <c r="B224" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C224" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4237,10 +4238,10 @@
         <v>101280501</v>
       </c>
       <c r="B225" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C225" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4248,10 +4249,10 @@
         <v>101280601</v>
       </c>
       <c r="B226" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C226" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4259,10 +4260,10 @@
         <v>101280701</v>
       </c>
       <c r="B227" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C227" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4270,10 +4271,10 @@
         <v>101280801</v>
       </c>
       <c r="B228" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C228" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4281,10 +4282,10 @@
         <v>101280901</v>
       </c>
       <c r="B229" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C229" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4292,10 +4293,10 @@
         <v>101281001</v>
       </c>
       <c r="B230" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4303,10 +4304,10 @@
         <v>101281101</v>
       </c>
       <c r="B231" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C231" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4314,10 +4315,10 @@
         <v>101281201</v>
       </c>
       <c r="B232" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C232" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4325,10 +4326,10 @@
         <v>101281301</v>
       </c>
       <c r="B233" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C233" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4336,10 +4337,10 @@
         <v>101281401</v>
       </c>
       <c r="B234" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C234" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4347,10 +4348,10 @@
         <v>101281501</v>
       </c>
       <c r="B235" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C235" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4358,10 +4359,10 @@
         <v>101281601</v>
       </c>
       <c r="B236" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C236" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4369,10 +4370,10 @@
         <v>101281701</v>
       </c>
       <c r="B237" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C237" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4380,10 +4381,10 @@
         <v>101281801</v>
       </c>
       <c r="B238" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C238" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4391,10 +4392,10 @@
         <v>101281901</v>
       </c>
       <c r="B239" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C239" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4402,10 +4403,10 @@
         <v>101282001</v>
       </c>
       <c r="B240" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C240" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4413,10 +4414,10 @@
         <v>101282101</v>
       </c>
       <c r="B241" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C241" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4424,10 +4425,10 @@
         <v>101270101</v>
       </c>
       <c r="B242" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C242" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4435,10 +4436,10 @@
         <v>101270201</v>
       </c>
       <c r="B243" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C243" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4446,10 +4447,10 @@
         <v>101270301</v>
       </c>
       <c r="B244" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C244" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4457,10 +4458,10 @@
         <v>101270401</v>
       </c>
       <c r="B245" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C245" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4468,10 +4469,10 @@
         <v>101270501</v>
       </c>
       <c r="B246" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C246" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4479,10 +4480,10 @@
         <v>101270601</v>
       </c>
       <c r="B247" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C247" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4490,10 +4491,10 @@
         <v>101270701</v>
       </c>
       <c r="B248" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C248" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4501,10 +4502,10 @@
         <v>101270801</v>
       </c>
       <c r="B249" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C249" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4512,10 +4513,10 @@
         <v>101270901</v>
       </c>
       <c r="B250" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C250" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4523,10 +4524,10 @@
         <v>101271001</v>
       </c>
       <c r="B251" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C251" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4534,10 +4535,10 @@
         <v>101271101</v>
       </c>
       <c r="B252" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C252" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4545,10 +4546,10 @@
         <v>101271201</v>
       </c>
       <c r="B253" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C253" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4556,10 +4557,10 @@
         <v>101271301</v>
       </c>
       <c r="B254" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C254" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4567,10 +4568,10 @@
         <v>101271401</v>
       </c>
       <c r="B255" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C255" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4578,10 +4579,10 @@
         <v>101271501</v>
       </c>
       <c r="B256" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C256" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4589,10 +4590,10 @@
         <v>101271601</v>
       </c>
       <c r="B257" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C257" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4600,10 +4601,10 @@
         <v>101271701</v>
       </c>
       <c r="B258" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C258" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4611,10 +4612,10 @@
         <v>101271801</v>
       </c>
       <c r="B259" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C259" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4622,10 +4623,10 @@
         <v>101271901</v>
       </c>
       <c r="B260" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C260" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4633,10 +4634,10 @@
         <v>101272001</v>
       </c>
       <c r="B261" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C261" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4644,10 +4645,10 @@
         <v>101272101</v>
       </c>
       <c r="B262" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C262" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4655,10 +4656,10 @@
         <v>101260101</v>
       </c>
       <c r="B263" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C263" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4666,10 +4667,10 @@
         <v>101260201</v>
       </c>
       <c r="B264" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C264" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4677,10 +4678,10 @@
         <v>101260301</v>
       </c>
       <c r="B265" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C265" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4688,10 +4689,10 @@
         <v>101260401</v>
       </c>
       <c r="B266" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C266" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4699,10 +4700,10 @@
         <v>101260501</v>
       </c>
       <c r="B267" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C267" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4710,10 +4711,10 @@
         <v>101260601</v>
       </c>
       <c r="B268" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C268" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4721,10 +4722,10 @@
         <v>101260701</v>
       </c>
       <c r="B269" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C269" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4732,10 +4733,10 @@
         <v>101260801</v>
       </c>
       <c r="B270" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C270" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4743,10 +4744,10 @@
         <v>101260901</v>
       </c>
       <c r="B271" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C271" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4754,10 +4755,10 @@
         <v>101250101</v>
       </c>
       <c r="B272" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C272" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4765,10 +4766,10 @@
         <v>101250201</v>
       </c>
       <c r="B273" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C273" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4776,10 +4777,10 @@
         <v>101250301</v>
       </c>
       <c r="B274" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C274" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4787,10 +4788,10 @@
         <v>101250401</v>
       </c>
       <c r="B275" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C275" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4798,10 +4799,10 @@
         <v>101250501</v>
       </c>
       <c r="B276" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C276" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4809,10 +4810,10 @@
         <v>101250601</v>
       </c>
       <c r="B277" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C277" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4820,10 +4821,10 @@
         <v>101250701</v>
       </c>
       <c r="B278" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C278" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4831,10 +4832,10 @@
         <v>101250801</v>
       </c>
       <c r="B279" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C279" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4842,10 +4843,10 @@
         <v>101250901</v>
       </c>
       <c r="B280" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C280" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4853,10 +4854,10 @@
         <v>101251001</v>
       </c>
       <c r="B281" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C281" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4864,10 +4865,10 @@
         <v>101251101</v>
       </c>
       <c r="B282" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C282" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4875,10 +4876,10 @@
         <v>101251201</v>
       </c>
       <c r="B283" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C283" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4886,10 +4887,10 @@
         <v>101251401</v>
       </c>
       <c r="B284" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C284" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4897,10 +4898,10 @@
         <v>101251501</v>
       </c>
       <c r="B285" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C285" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4908,10 +4909,10 @@
         <v>101240101</v>
       </c>
       <c r="B286" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C286" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4919,10 +4920,10 @@
         <v>101240201</v>
       </c>
       <c r="B287" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C287" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4930,10 +4931,10 @@
         <v>101240301</v>
       </c>
       <c r="B288" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C288" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4941,10 +4942,10 @@
         <v>101240401</v>
       </c>
       <c r="B289" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C289" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4952,10 +4953,10 @@
         <v>101240501</v>
       </c>
       <c r="B290" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C290" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4963,10 +4964,10 @@
         <v>101240601</v>
       </c>
       <c r="B291" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C291" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4974,10 +4975,10 @@
         <v>101240701</v>
       </c>
       <c r="B292" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C292" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4985,10 +4986,10 @@
         <v>101240801</v>
       </c>
       <c r="B293" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C293" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4996,10 +4997,10 @@
         <v>101240901</v>
       </c>
       <c r="B294" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C294" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5007,10 +5008,10 @@
         <v>101241001</v>
       </c>
       <c r="B295" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C295" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5018,10 +5019,10 @@
         <v>101241101</v>
       </c>
       <c r="B296" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C296" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5029,10 +5030,10 @@
         <v>101230101</v>
       </c>
       <c r="B297" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C297" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5040,10 +5041,10 @@
         <v>101230201</v>
       </c>
       <c r="B298" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C298" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5051,10 +5052,10 @@
         <v>101230301</v>
       </c>
       <c r="B299" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C299" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5062,10 +5063,10 @@
         <v>101230401</v>
       </c>
       <c r="B300" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C300" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5073,10 +5074,10 @@
         <v>101230501</v>
       </c>
       <c r="B301" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C301" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5084,10 +5085,10 @@
         <v>101230601</v>
       </c>
       <c r="B302" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C302" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5095,10 +5096,10 @@
         <v>101230701</v>
       </c>
       <c r="B303" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C303" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5106,10 +5107,10 @@
         <v>101230801</v>
       </c>
       <c r="B304" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C304" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5117,10 +5118,10 @@
         <v>101230901</v>
       </c>
       <c r="B305" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C305" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5128,10 +5129,10 @@
         <v>101220101</v>
       </c>
       <c r="B306" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C306" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5139,10 +5140,10 @@
         <v>101220201</v>
       </c>
       <c r="B307" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C307" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5150,10 +5151,10 @@
         <v>101220301</v>
       </c>
       <c r="B308" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C308" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5161,10 +5162,10 @@
         <v>101220401</v>
       </c>
       <c r="B309" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C309" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5172,10 +5173,10 @@
         <v>101220501</v>
       </c>
       <c r="B310" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C310" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5183,10 +5184,10 @@
         <v>101220601</v>
       </c>
       <c r="B311" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C311" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5194,10 +5195,10 @@
         <v>101220701</v>
       </c>
       <c r="B312" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C312" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5205,10 +5206,10 @@
         <v>101220801</v>
       </c>
       <c r="B313" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C313" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5216,10 +5217,10 @@
         <v>101220901</v>
       </c>
       <c r="B314" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C314" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5227,10 +5228,10 @@
         <v>101221001</v>
       </c>
       <c r="B315" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C315" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5238,10 +5239,10 @@
         <v>101221101</v>
       </c>
       <c r="B316" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C316" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5249,10 +5250,10 @@
         <v>101221201</v>
       </c>
       <c r="B317" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C317" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5260,10 +5261,10 @@
         <v>101221301</v>
       </c>
       <c r="B318" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C318" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5271,10 +5272,10 @@
         <v>101221401</v>
       </c>
       <c r="B319" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C319" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5282,10 +5283,10 @@
         <v>101221501</v>
       </c>
       <c r="B320" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C320" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5293,10 +5294,10 @@
         <v>101221701</v>
       </c>
       <c r="B321" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C321" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5304,10 +5305,10 @@
         <v>101210101</v>
       </c>
       <c r="B322" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C322" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5315,10 +5316,10 @@
         <v>101210201</v>
       </c>
       <c r="B323" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C323" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5326,10 +5327,10 @@
         <v>101210301</v>
       </c>
       <c r="B324" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C324" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5337,10 +5338,10 @@
         <v>101210401</v>
       </c>
       <c r="B325" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C325" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5348,10 +5349,10 @@
         <v>101210501</v>
       </c>
       <c r="B326" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C326" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5362,7 +5363,7 @@
         <v>188</v>
       </c>
       <c r="C327" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5370,10 +5371,10 @@
         <v>101210701</v>
       </c>
       <c r="B328" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C328" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5381,10 +5382,10 @@
         <v>101210801</v>
       </c>
       <c r="B329" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C329" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5392,10 +5393,10 @@
         <v>101210901</v>
       </c>
       <c r="B330" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C330" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5403,10 +5404,10 @@
         <v>101211001</v>
       </c>
       <c r="B331" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C331" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5414,10 +5415,10 @@
         <v>101211101</v>
       </c>
       <c r="B332" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C332" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5425,10 +5426,10 @@
         <v>101200101</v>
       </c>
       <c r="B333" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C333" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5436,10 +5437,10 @@
         <v>101200201</v>
       </c>
       <c r="B334" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C334" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5447,10 +5448,10 @@
         <v>101200301</v>
       </c>
       <c r="B335" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C335" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5458,10 +5459,10 @@
         <v>101200401</v>
       </c>
       <c r="B336" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C336" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5469,10 +5470,10 @@
         <v>101200501</v>
       </c>
       <c r="B337" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C337" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5480,10 +5481,10 @@
         <v>101200601</v>
       </c>
       <c r="B338" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C338" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5491,10 +5492,10 @@
         <v>101200701</v>
       </c>
       <c r="B339" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C339" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5502,10 +5503,10 @@
         <v>101200801</v>
       </c>
       <c r="B340" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C340" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5513,10 +5514,10 @@
         <v>101200901</v>
       </c>
       <c r="B341" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C341" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5524,10 +5525,10 @@
         <v>101201001</v>
       </c>
       <c r="B342" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C342" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5535,10 +5536,10 @@
         <v>101201101</v>
       </c>
       <c r="B343" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C343" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5546,10 +5547,10 @@
         <v>101201201</v>
       </c>
       <c r="B344" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C344" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5557,10 +5558,10 @@
         <v>101201301</v>
       </c>
       <c r="B345" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C345" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5568,10 +5569,10 @@
         <v>101201401</v>
       </c>
       <c r="B346" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C346" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5579,10 +5580,10 @@
         <v>101201501</v>
       </c>
       <c r="B347" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C347" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5590,10 +5591,10 @@
         <v>101201601</v>
       </c>
       <c r="B348" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C348" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5601,10 +5602,10 @@
         <v>101201701</v>
       </c>
       <c r="B349" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C349" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
